--- a/biology/Médecine/Miansérine/Miansérine.xlsx
+++ b/biology/Médecine/Miansérine/Miansérine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mians%C3%A9rine</t>
+          <t>Miansérine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La miansérine est une molécule psychoactive de la famille des antidépresseurs tétracycliques. Elle est utilisée principalement comme médicament pour traiter la dépression[3]. Elle est censée avoir des effets antidépresseur, anxiolytique, hypnotique, antiémétique, orexigène et antihistaminique.
+La miansérine est une molécule psychoactive de la famille des antidépresseurs tétracycliques. Elle est utilisée principalement comme médicament pour traiter la dépression. Elle est censée avoir des effets antidépresseur, anxiolytique, hypnotique, antiémétique, orexigène et antihistaminique.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mians%C3%A9rine</t>
+          <t>Miansérine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La miansérine aux doses de 30 à 90 mg/j est utilisée dans le traitement de la dépression, comme celles associées à une agitation ou une anxiété.
-Elle peut aussi être utilisée à dose plus faible (autour de 10 mg/j) pour traiter l'insomnie, hors AMM[4] (typiquement pendant des durées de 6 mois pour rétablir les conditions de retour vers un sommeil de qualité)[5],[6].
+Elle peut aussi être utilisée à dose plus faible (autour de 10 mg/j) pour traiter l'insomnie, hors AMM (typiquement pendant des durées de 6 mois pour rétablir les conditions de retour vers un sommeil de qualité),.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mians%C3%A9rine</t>
+          <t>Miansérine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Pharmacologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La miansérine est un antagoniste/agoniste inverse des récepteurs H1, 5-HT1D, 5-HT2A, 5-HT2B, 5-HT2C, 5-HT3, 5-HT6, 5-HT7, α1-adrénergiques, et α2-adrenergiques. Elle inhibe aussi la recapture de la noradrénaline. En tant qu'agoniste inverse des récepteurs H1, la miansérine a un fort effet antihistaminique. Par contre, elle a une très faible affinité pour les récepteurs mACh et n'a ainsi pas de propriété anticholinergiques.
 Par ailleurs, la miansérine semble être un puissant antagoniste pour le récepteur neuronal à l'octopamine.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mians%C3%A9rine</t>
+          <t>Miansérine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Spécialités contenant de la miansérine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Médicaments contenant de la miansérine commercialisés en France[7] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Médicaments contenant de la miansérine commercialisés en France :
 Athymil
 miansérine générique des laboratoires Almus, Arrow, Biogaran, Cristers, EG, Mepha, Mylan, Qualimed, Ratiopharm, RPG, Sandoz, Teva et Winthrop.</t>
         </is>
